--- a/eredmények.xlsx
+++ b/eredmények.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrb12\Google Drive\PE\8. félév\Rendszerfejlesztés\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrb12\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F7889E4D-7891-4EE7-9C62-2802046D247C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Ricsi</t>
   </si>
@@ -84,12 +85,18 @@
   </si>
   <si>
     <t>VÉGEREDMÉNY</t>
+  </si>
+  <si>
+    <t>6. beadandó</t>
+  </si>
+  <si>
+    <t>7. beadandó</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -494,26 +501,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11.109375" customWidth="1"/>
-    <col min="17" max="17" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>4</v>
@@ -543,7 +550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +573,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -589,7 +596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -612,7 +619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -635,7 +642,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
@@ -651,87 +658,129 @@
       <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B8" s="1">
         <v>60</v>
       </c>
       <c r="C8" s="1">
         <v>100</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="1">
+        <v>85</v>
+      </c>
+      <c r="E8" s="1">
+        <v>70</v>
+      </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <f>AVERAGE(B8:C8)*0.7</f>
-        <v>56</v>
-      </c>
-      <c r="H8" s="1">
-        <f>J2+G8</f>
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
+        <f>AVERAGE(B8:H8)*0.7</f>
+        <v>55.125</v>
+      </c>
+      <c r="J8" s="1">
+        <f>J2+I8</f>
+        <v>76.625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B9" s="1">
         <v>60</v>
       </c>
       <c r="C9" s="1">
         <v>100</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1">
+        <v>85</v>
+      </c>
+      <c r="E9" s="1">
+        <v>70</v>
+      </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <f>AVERAGE(B9:C9)*0.7</f>
-        <v>56</v>
-      </c>
-      <c r="H9" s="1">
-        <f>J3+G9</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
+        <f t="shared" ref="I9:I11" si="0">AVERAGE(B9:H9)*0.7</f>
+        <v>55.125</v>
+      </c>
+      <c r="J9" s="1">
+        <f>J3+I9</f>
+        <v>75.125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B10" s="1">
         <v>60</v>
       </c>
       <c r="C10" s="1">
         <v>100</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1">
+        <v>85</v>
+      </c>
+      <c r="E10" s="1">
+        <v>70</v>
+      </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1">
-        <f t="shared" ref="G10:G11" si="0">AVERAGE(B10:C10)*0.7</f>
-        <v>56</v>
-      </c>
-      <c r="H10" s="1">
-        <f>J4+G10</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>55.125</v>
+      </c>
+      <c r="J10" s="1">
+        <f>J4+I10</f>
+        <v>75.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B11" s="1">
         <v>60</v>
       </c>
       <c r="C11" s="1">
         <v>100</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="1">
+        <v>85</v>
+      </c>
+      <c r="E11" s="1">
+        <v>70</v>
+      </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="H11" s="1">
-        <f>J5+G11</f>
-        <v>77.5</v>
+        <v>55.125</v>
+      </c>
+      <c r="J11" s="1">
+        <f>J5+I11</f>
+        <v>76.625</v>
       </c>
     </row>
   </sheetData>

--- a/eredmények.xlsx
+++ b/eredmények.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrb12\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrb12\Documents\GitHub\RedszerFejlesztes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F7889E4D-7891-4EE7-9C62-2802046D247C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{15159CBB-B5C5-4A70-B29E-A28D118782CD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Ricsi</t>
   </si>
@@ -49,18 +49,6 @@
   </si>
   <si>
     <t>4. kiszh</t>
-  </si>
-  <si>
-    <t>5. kiszh</t>
-  </si>
-  <si>
-    <t>6. kiszh</t>
-  </si>
-  <si>
-    <t>7. kiszh</t>
-  </si>
-  <si>
-    <t>8.kiszh</t>
   </si>
   <si>
     <t>1. beadandó</t>
@@ -505,12 +493,13 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -534,20 +523,8 @@
       <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -563,14 +540,12 @@
       <c r="D2" s="1">
         <v>7</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1">
-        <f>AVERAGE(B2:I2)*0.3*10</f>
-        <v>21.5</v>
+      <c r="E2" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <f>AVERAGE(B2:E2)*0.3*10</f>
+        <v>22.875</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -586,14 +561,12 @@
       <c r="D3" s="1">
         <v>7</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1">
-        <f>AVERAGE(B3:I3)*0.3*10</f>
-        <v>20</v>
+      <c r="E3" s="1">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F5" si="0">AVERAGE(B3:E3)*0.3*10</f>
+        <v>21.75</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -609,14 +582,12 @@
       <c r="D4" s="1">
         <v>7</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1">
-        <f>AVERAGE(B4:I4)*0.3*10</f>
-        <v>20</v>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -632,43 +603,41 @@
       <c r="D5" s="1">
         <v>8.5</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1">
-        <f>AVERAGE(B5:I5)*0.3*10</f>
-        <v>21.5</v>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>23.625</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="G7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -687,16 +656,20 @@
       <c r="E8" s="1">
         <v>70</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F8" s="1">
+        <v>80</v>
+      </c>
+      <c r="G8" s="1">
+        <v>70</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
         <f>AVERAGE(B8:H8)*0.7</f>
-        <v>55.125</v>
+        <v>54.25</v>
       </c>
       <c r="J8" s="1">
-        <f>J2+I8</f>
-        <v>76.625</v>
+        <f>F2+I8</f>
+        <v>77.125</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -715,16 +688,20 @@
       <c r="E9" s="1">
         <v>70</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="1">
+        <v>80</v>
+      </c>
+      <c r="G9" s="1">
+        <v>70</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1">
-        <f t="shared" ref="I9:I11" si="0">AVERAGE(B9:H9)*0.7</f>
-        <v>55.125</v>
+        <f t="shared" ref="I9:I11" si="1">AVERAGE(B9:H9)*0.7</f>
+        <v>54.25</v>
       </c>
       <c r="J9" s="1">
-        <f>J3+I9</f>
-        <v>75.125</v>
+        <f>F3+I9</f>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -743,16 +720,20 @@
       <c r="E10" s="1">
         <v>70</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="1">
+        <v>80</v>
+      </c>
+      <c r="G10" s="1">
+        <v>70</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
-        <f t="shared" si="0"/>
-        <v>55.125</v>
+        <f t="shared" si="1"/>
+        <v>54.25</v>
       </c>
       <c r="J10" s="1">
-        <f>J4+I10</f>
-        <v>75.125</v>
+        <f>F4+I10</f>
+        <v>76.75</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -771,16 +752,20 @@
       <c r="E11" s="1">
         <v>70</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="1">
+        <v>80</v>
+      </c>
+      <c r="G11" s="1">
+        <v>70</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1">
-        <f t="shared" si="0"/>
-        <v>55.125</v>
+        <f t="shared" si="1"/>
+        <v>54.25</v>
       </c>
       <c r="J11" s="1">
-        <f>J5+I11</f>
-        <v>76.625</v>
+        <f>F5+I11</f>
+        <v>77.875</v>
       </c>
     </row>
   </sheetData>
